--- a/BackTest/2020-01-20 BackTest INS.xlsx
+++ b/BackTest/2020-01-20 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-131363.1749901133</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-133862.7685901133</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-176189.5217901133</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-183887.5540901133</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-192705.9707901133</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-192703.3707901133</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-198847.0879901132</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-198823.4301901133</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-196823.4301901133</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-201706.4404901133</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-211410.4525901132</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-211400.4525901132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-208183.5581901133</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-208183.5581901133</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-221225.5593199269</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-221013.272219927</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-220513.272219927</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-220510.672219927</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-244897.409019927</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-244921.079019927</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-244643.938019927</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-235774.671919927</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-243051.969019927</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-243045.215719927</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-244232.826919927</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-244222.826919927</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-249054.076219927</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-251916.348319927</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-241916.348319927</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-241280.348319927</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-241300.348319927</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-241300.348319927</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-255221.567519927</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-255221.567519927</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-255201.567519927</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-255211.567519927</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-298415.771019927</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-299816.059119927</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-299242.075919927</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-299242.075919927</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-295234.789219927</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-300330.023319927</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-399587.647119927</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-392360.0681199271</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-371075.1666199272</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-373634.2717199271</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-411177.3317199271</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-409848.2329199271</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-437365.6908199271</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-436958.2781199271</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-437556.1502199271</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-551520.2691440289</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-556647.6691440289</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-560420.7306440289</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-563713.2701440288</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-575459.8863387546</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-571075.7292387546</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -14971,10 +14971,14 @@
         <v>-847617.4832376509</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>184</v>
+      </c>
+      <c r="J442" t="n">
+        <v>184</v>
+      </c>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
@@ -15007,8 +15011,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>184</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15047,19 @@
         <v>-840441.8240376509</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>184</v>
+      </c>
+      <c r="J444" t="n">
+        <v>184</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15385,17 @@
         <v>-849240.3543376509</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>184.3</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15424,17 @@
         <v>-851383.8397376509</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>184.2</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15463,17 @@
         <v>-867930.161737651</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>183.9</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15502,17 @@
         <v>-864108.161737651</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>183.2</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15541,17 @@
         <v>-867974.1300376509</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>183.9</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15580,17 @@
         <v>-867655.1107376509</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>183.2</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15619,17 @@
         <v>-867655.1107376509</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>184</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15658,17 @@
         <v>-875404.9034376509</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>184</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15697,17 @@
         <v>-875400.1986376509</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>182.5</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15736,17 @@
         <v>-868598.3716376509</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>182.6</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15775,17 @@
         <v>-868577.7591376508</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>182.7</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15814,17 @@
         <v>-878821.4879376509</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>184.1</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15853,17 @@
         <v>-877419.8128376509</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>182.5</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15892,17 @@
         <v>-877314.0006376508</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +15935,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +15968,17 @@
         <v>-889903.7718376509</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>183.7</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16007,17 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>182.6</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16046,17 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16085,17 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16124,17 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16163,17 @@
         <v>-888016.478637651</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16202,17 @@
         <v>-892044.473637651</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16241,17 @@
         <v>-891793.473637651</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>182.9</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16280,17 @@
         <v>-891430.364737651</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16323,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16356,17 @@
         <v>-895246.9417376509</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,7 +16395,7 @@
         <v>-938804.7579376509</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>183.4</v>
@@ -16233,7 +16403,7 @@
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
@@ -16412,9 +16582,11 @@
         <v>-938788.5630376509</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>183.4</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16449,9 +16621,11 @@
         <v>-944589.3722376509</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>183.4</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16486,9 +16660,11 @@
         <v>-940079.6954376509</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>182.3</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16523,9 +16699,11 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>183.4</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16560,9 +16738,11 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>182</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16597,7 +16777,7 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>182</v>
@@ -16636,7 +16816,7 @@
         <v>-943521.0129376509</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>182</v>
@@ -16675,7 +16855,7 @@
         <v>-942881.2135376509</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>184.3</v>
@@ -16714,7 +16894,7 @@
         <v>-943155.2135376509</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>184.9</v>
@@ -16753,7 +16933,7 @@
         <v>-945161.7993376509</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>184</v>
@@ -16792,7 +16972,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>182.9</v>
@@ -16831,7 +17011,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>183</v>
@@ -16870,7 +17050,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>183</v>
@@ -16909,7 +17089,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>183</v>
@@ -16948,7 +17128,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>183</v>
@@ -16987,7 +17167,7 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>183</v>
@@ -17026,7 +17206,7 @@
         <v>-944858.5910376508</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501" t="n">
         <v>183</v>
@@ -17065,7 +17245,7 @@
         <v>-944858.5910376508</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502" t="n">
         <v>183.9</v>
@@ -17104,7 +17284,7 @@
         <v>-944842.1252376508</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
         <v>183.9</v>
@@ -17143,7 +17323,7 @@
         <v>-945485.6613376508</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
         <v>184</v>
@@ -17182,7 +17362,7 @@
         <v>-944985.6613376508</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>183.2</v>
@@ -17221,9 +17401,11 @@
         <v>-944988.3913376508</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>185</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17258,9 +17440,11 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>183.4</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17295,9 +17479,11 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17332,9 +17518,11 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17369,9 +17557,11 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17406,9 +17596,11 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17443,7 +17635,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" t="n">
         <v>183.5</v>
@@ -17482,7 +17674,7 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>183.5</v>
@@ -17521,7 +17713,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>183.5</v>
@@ -17560,7 +17752,7 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I515" t="n">
         <v>183.6</v>
@@ -17599,9 +17791,11 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17636,7 +17830,7 @@
         <v>-945028.0259376509</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>183.6</v>
@@ -17675,7 +17869,7 @@
         <v>-934538.347537651</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>184.9</v>
@@ -17714,7 +17908,7 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>185.3</v>
@@ -17753,11 +17947,9 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>184.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17829,11 +18021,9 @@
         <v>-940669.797637651</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>184.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -17905,11 +18095,9 @@
         <v>-941142.821337651</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>184.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -17944,11 +18132,9 @@
         <v>-940226.6964376509</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="n">
-        <v>186.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18316,9 +18502,11 @@
         <v>-956725.0585547547</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>185.3</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18353,9 +18541,11 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>185.3</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18390,9 +18580,11 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18427,9 +18619,11 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18464,9 +18658,11 @@
         <v>-958026.2204547547</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18479,6 +18675,6 @@
       <c r="M539" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest INS.xlsx
+++ b/BackTest/2020-01-20 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-131363.1749901133</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-133862.7685901133</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-176189.5217901133</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-183887.5540901133</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-192705.9707901133</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-192703.3707901133</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-198847.0879901132</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-198823.4301901133</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-196823.4301901133</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-201706.4404901133</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-211410.4525901132</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-211400.4525901132</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-208183.5581901133</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-208183.5581901133</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-221225.5593199269</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-221013.272219927</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-220513.272219927</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-220510.672219927</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-244897.409019927</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-244921.079019927</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-244643.938019927</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-243045.215719927</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-244232.826919927</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-244222.826919927</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-249054.076219927</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-251916.348319927</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-241916.348319927</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-241280.348319927</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-241300.348319927</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-241300.348319927</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-255221.567519927</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-255221.567519927</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-255201.567519927</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-255211.567519927</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-256191.3675199269</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-298415.771019927</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-299816.059119927</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-299242.075919927</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-299242.075919927</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-295234.789219927</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-378823.9491199271</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-374434.8426199271</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-373636.8427199271</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-371075.1666199272</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-373634.2717199271</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-373631.6717199272</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-379564.6717199272</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-411177.3317199271</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-409928.1659199271</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-409848.2329199271</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-437365.6908199271</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-436958.2781199271</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-437296.0186199271</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-436776.6286199271</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-436546.7820199271</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-437556.1502199271</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-441602.3781199271</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-446453.9313199272</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-446453.9313199272</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-447887.6650199271</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-447524.6527199271</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-462827.6527199271</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-462805.6827199272</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-466368.1649199272</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-465305.5917199272</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-460017.5917199272</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-460265.0117199272</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-445808.7004199272</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-543572.3663440287</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-557401.3653440288</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-551743.4005440288</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-551520.2691440289</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-556647.6691440289</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-560420.7306440289</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-563713.2701440288</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-564233.2701440288</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-567406.2771440288</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-571552.4908440288</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-571946.4908440288</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-570321.4157440288</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-580980.9204440287</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-581926.9629440287</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-581944.9629440287</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-582815.1261440286</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-575746.3750440286</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-575467.4023440286</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-575367.4597550473</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-575167.7263387546</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-575188.8063387546</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-574672.8650387545</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-571104.6892387546</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-572898.0192387546</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-576928.6792387547</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-677698.4548191174</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-678211.4548191174</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-678075.5648191174</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-678057.5948191175</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-678557.5948191175</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-668078.8162191175</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-668148.2893191174</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-672207.6445191174</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-681018.9693191174</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-701690.2886273676</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-701672.2886273676</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-701886.3937273676</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-708414.0967273676</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-708364.2293273676</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-709433.9766273675</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-710604.6917273676</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-711271.0017273676</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-710594.0017273676</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-717860.3811273676</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-717857.3811273676</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-719259.2648273676</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14971,14 +14971,10 @@
         <v>-847617.4832376509</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>184</v>
-      </c>
-      <c r="J442" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
@@ -15011,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>184</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15047,19 +15037,11 @@
         <v>-840441.8240376509</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>184</v>
-      </c>
-      <c r="J444" t="n">
-        <v>184</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15385,17 +15367,11 @@
         <v>-849240.3543376509</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>184.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15424,17 +15400,11 @@
         <v>-851383.8397376509</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>184.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15463,17 +15433,11 @@
         <v>-867930.161737651</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>183.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15502,17 +15466,11 @@
         <v>-864108.161737651</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>183.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15549,7 +15507,7 @@
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L458" t="n">
@@ -15619,11 +15577,9 @@
         <v>-867655.1107376509</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15931,9 +15887,11 @@
         <v>-881992.5406376509</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>184.1</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16356,11 +16314,9 @@
         <v>-895246.9417376509</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16395,11 +16351,9 @@
         <v>-938804.7579376509</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>183.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16582,11 +16536,9 @@
         <v>-938788.5630376509</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>183.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16621,11 +16573,9 @@
         <v>-944589.3722376509</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>183.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16660,11 +16610,9 @@
         <v>-940079.6954376509</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>182.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16699,11 +16647,9 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>183.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16738,11 +16684,9 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16777,11 +16721,9 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16816,11 +16758,9 @@
         <v>-943521.0129376509</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16855,11 +16795,9 @@
         <v>-942881.2135376509</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>184.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16894,11 +16832,9 @@
         <v>-943155.2135376509</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>184.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16933,11 +16869,9 @@
         <v>-945161.7993376509</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -16972,11 +16906,9 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>182.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17245,11 +17177,9 @@
         <v>-944858.5910376508</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>183.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17284,11 +17214,9 @@
         <v>-944842.1252376508</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>183.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17323,11 +17251,9 @@
         <v>-945485.6613376508</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>184</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17362,11 +17288,9 @@
         <v>-944985.6613376508</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>183.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17401,11 +17325,9 @@
         <v>-944988.3913376508</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17440,11 +17362,9 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>183.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17479,11 +17399,9 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>183.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17518,11 +17436,9 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>183.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17557,11 +17473,9 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>184.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17596,11 +17510,9 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>184.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17635,11 +17547,9 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17674,11 +17584,9 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17713,11 +17621,9 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17752,11 +17658,9 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>183.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17791,11 +17695,9 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>183.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17830,11 +17732,9 @@
         <v>-945028.0259376509</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>183.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17869,11 +17769,9 @@
         <v>-934538.347537651</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>184.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17908,11 +17806,9 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>185.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18169,18 +18065,16 @@
         <v>-941317.4393547548</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="inlineStr"/>
     </row>
     <row r="527">
@@ -18206,15 +18100,11 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18243,15 +18133,11 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18280,15 +18166,11 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18317,15 +18199,11 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18358,11 +18236,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18395,11 +18269,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18432,11 +18302,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18335,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18502,17 +18364,11 @@
         <v>-956725.0585547547</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>185.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18541,17 +18397,11 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>185.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18580,17 +18430,11 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>185.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18619,17 +18463,11 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>185.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18658,23 +18496,17 @@
         <v>-958026.2204547547</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>185.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
       <c r="M539" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest INS.xlsx
+++ b/BackTest/2020-01-20 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>-131363.1749901133</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-133862.7685901133</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-165031.2117901133</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-157145.2117901133</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-176189.5217901133</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-183887.5540901133</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-192705.9707901133</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-192703.3707901133</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-192726.5807901133</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-198847.0879901132</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-198823.4301901133</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-196823.4301901133</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-201706.4404901133</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-211410.4525901132</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-211400.4525901132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-208156.741419927</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-221225.5593199269</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-221013.272219927</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-220513.272219927</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-220510.672219927</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-244897.409019927</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-244921.079019927</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-244643.938019927</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-233774.671919927</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-238978.897519927</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-243045.215719927</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-244232.826919927</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-244222.826919927</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-249054.076219927</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-251916.348319927</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-241916.348319927</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-241280.348319927</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-241290.348319927</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-255211.567519927</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-255205.3675199269</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-256191.3675199269</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-255803.901519927</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-260465.259319927</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-260470.473919927</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-378823.9491199271</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-374434.8426199271</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-373636.8427199271</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-371848.5423199271</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-371075.1666199272</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-373624.2717199271</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-373634.2717199271</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-373631.6717199272</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-379564.6717199272</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-378488.6717199272</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-411177.3317199271</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-409928.1659199271</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-410432.2491199271</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-409848.2329199271</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-436958.2781199271</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-436962.7281199271</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-435296.0186199271</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-460017.5917199272</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-447794.9487199272</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-445808.7004199272</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-543572.3663440287</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-545174.7186440288</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-545170.7186440288</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-544420.7186440288</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-557401.3653440288</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-551743.4005440288</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-551520.2691440289</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-556900.2691440289</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-556647.6691440289</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-560420.7306440289</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-563713.2701440288</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-564233.2701440288</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-567406.2771440288</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-571552.4908440288</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-571946.4908440288</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-570321.4157440288</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-571223.1745440287</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-581145.8006440287</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-580980.9204440287</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-581926.9629440287</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-581944.9629440287</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-582815.1261440286</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-575746.3750440286</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-575467.4023440286</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-575367.4597550473</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-575167.7263387546</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-575188.8063387546</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-574672.8650387545</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-571104.6892387546</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-573165.9892387546</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-572898.0192387546</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-576928.6792387547</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-579636.6349387547</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-707671.4306191175</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-699569.9977191174</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-699517.5177191175</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-699517.5177191175</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-699539.6277191174</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-699517.7777191175</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-677698.4548191174</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-678203.4648191174</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-678075.5648191174</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-678057.5948191175</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-678557.5948191175</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-668078.8162191175</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-668148.2893191174</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-671978.8558191174</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-672207.6445191174</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-681018.9693191174</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-701690.2886273676</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-701672.2886273676</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-701886.3937273676</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-703984.9938273676</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-703930.7078273676</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-708414.0967273676</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-708364.2293273676</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-708472.4119273676</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-708469.4119273676</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-709433.9766273675</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-710604.6917273676</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-711271.0017273676</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-710594.0017273676</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-717860.3811273676</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-717857.3811273676</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-719259.2648273676</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15499,1163 +15499,1007 @@
         <v>-867974.1300376509</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>183.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>184</v>
+      </c>
+      <c r="C459" t="n">
+        <v>184</v>
+      </c>
+      <c r="D459" t="n">
+        <v>184</v>
+      </c>
+      <c r="E459" t="n">
+        <v>184</v>
+      </c>
+      <c r="F459" t="n">
+        <v>319.0193</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-867655.1107376509</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="C460" t="n">
+        <v>184</v>
+      </c>
+      <c r="D460" t="n">
+        <v>184</v>
+      </c>
+      <c r="E460" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="F460" t="n">
+        <v>865.6538</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-867655.1107376509</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="C461" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D461" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="E461" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F461" t="n">
+        <v>7749.7927</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-875404.9034376509</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="C462" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="D462" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="E462" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="F462" t="n">
+        <v>4.7048</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-875400.1986376509</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="C463" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="D463" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E463" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="F463" t="n">
+        <v>6801.827</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-868598.3716376509</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>184</v>
+      </c>
+      <c r="C464" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="D464" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E464" t="n">
+        <v>184</v>
+      </c>
+      <c r="F464" t="n">
+        <v>20.6125</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-868577.7591376508</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="C465" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="D465" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="E465" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F465" t="n">
+        <v>10243.7288</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-878821.4879376509</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="C466" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D466" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="E466" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="F466" t="n">
+        <v>1401.6751</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-877419.8128376509</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="C467" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="D467" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="E467" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="F467" t="n">
+        <v>105.8122</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-877314.0006376508</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C468" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="D468" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="E468" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F468" t="n">
+        <v>4678.54</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-881992.5406376509</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C469" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="D469" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="E469" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="F469" t="n">
+        <v>7911.2312</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-889903.7718376509</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C470" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D470" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E470" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1887.2932</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-888016.478637651</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C471" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D471" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E471" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F471" t="n">
+        <v>873.3441</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-888016.478637651</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C472" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D472" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E472" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F472" t="n">
+        <v>3264.9766</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-888016.478637651</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C473" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D473" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E473" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F473" t="n">
+        <v>4</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-888016.478637651</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C474" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D474" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E474" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F474" t="n">
+        <v>351.1544</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-888016.478637651</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="C475" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="D475" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="E475" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="F475" t="n">
+        <v>4027.995</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-892044.473637651</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C476" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D476" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E476" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F476" t="n">
+        <v>251</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-891793.473637651</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="C477" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="D477" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E477" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="F477" t="n">
+        <v>363.1089</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-891430.364737651</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C478" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="D478" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E478" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="F478" t="n">
+        <v>3813.8507</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-895244.2154376509</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C479" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D479" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E479" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F479" t="n">
+        <v>2.7263</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-895246.9417376509</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>183</v>
+      </c>
+      <c r="C480" t="n">
+        <v>182</v>
+      </c>
+      <c r="D480" t="n">
+        <v>183</v>
+      </c>
+      <c r="E480" t="n">
+        <v>182</v>
+      </c>
+      <c r="F480" t="n">
+        <v>43557.8162</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-938804.7579376509</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="C481" t="n">
+        <v>182</v>
+      </c>
+      <c r="D481" t="n">
+        <v>182</v>
+      </c>
+      <c r="E481" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="F481" t="n">
+        <v>14981.7278</v>
+      </c>
+      <c r="G481" t="n">
+        <v>-938804.7579376509</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>182</v>
+      </c>
+      <c r="C482" t="n">
+        <v>182</v>
+      </c>
+      <c r="D482" t="n">
+        <v>182</v>
+      </c>
+      <c r="E482" t="n">
+        <v>182</v>
+      </c>
+      <c r="F482" t="n">
+        <v>29699.1249</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-938804.7579376509</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C483" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D483" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E483" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F483" t="n">
+        <v>16.1949</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-938788.5630376509</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C484" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D484" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E484" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F484" t="n">
+        <v>250</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-938788.5630376509</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C485" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D485" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E485" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F485" t="n">
+        <v>2072</v>
+      </c>
+      <c r="G485" t="n">
+        <v>-938788.5630376509</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="C486" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="D486" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="E486" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="F486" t="n">
+        <v>5800.8092</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-944589.3722376509</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="C487" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="D487" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="E487" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="F487" t="n">
+        <v>4509.6768</v>
+      </c>
+      <c r="G487" t="n">
+        <v>-940079.6954376509</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="C488" t="n">
+        <v>182</v>
+      </c>
+      <c r="D488" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E488" t="n">
+        <v>182</v>
+      </c>
+      <c r="F488" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G488" t="n">
+        <v>-950079.6954376509</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>184</v>
-      </c>
-      <c r="C459" t="n">
-        <v>184</v>
-      </c>
-      <c r="D459" t="n">
-        <v>184</v>
-      </c>
-      <c r="E459" t="n">
-        <v>184</v>
-      </c>
-      <c r="F459" t="n">
-        <v>319.0193</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-867655.1107376509</v>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="C460" t="n">
-        <v>184</v>
-      </c>
-      <c r="D460" t="n">
-        <v>184</v>
-      </c>
-      <c r="E460" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="F460" t="n">
-        <v>865.6538</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-867655.1107376509</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="C461" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="D461" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="E461" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="F461" t="n">
-        <v>7749.7927</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-875404.9034376509</v>
-      </c>
-      <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>184</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="C462" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="D462" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="E462" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="F462" t="n">
-        <v>4.7048</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-875400.1986376509</v>
-      </c>
-      <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="C463" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="D463" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E463" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="F463" t="n">
-        <v>6801.827</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-868598.3716376509</v>
-      </c>
-      <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>184</v>
-      </c>
-      <c r="C464" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="D464" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="E464" t="n">
-        <v>184</v>
-      </c>
-      <c r="F464" t="n">
-        <v>20.6125</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-868577.7591376508</v>
-      </c>
-      <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="C465" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="D465" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="E465" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="F465" t="n">
-        <v>10243.7288</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-878821.4879376509</v>
-      </c>
-      <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="C466" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="D466" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="E466" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="F466" t="n">
-        <v>1401.6751</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-877419.8128376509</v>
-      </c>
-      <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="C467" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="D467" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="E467" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="F467" t="n">
-        <v>105.8122</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-877314.0006376508</v>
-      </c>
-      <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="C468" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="D468" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="E468" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F468" t="n">
-        <v>4678.54</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-881992.5406376509</v>
-      </c>
-      <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="C469" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="D469" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="E469" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="F469" t="n">
-        <v>7911.2312</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-889903.7718376509</v>
-      </c>
-      <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C470" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D470" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E470" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F470" t="n">
-        <v>1887.2932</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-888016.478637651</v>
-      </c>
-      <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C471" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D471" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E471" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F471" t="n">
-        <v>873.3441</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-888016.478637651</v>
-      </c>
-      <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C472" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D472" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E472" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F472" t="n">
-        <v>3264.9766</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-888016.478637651</v>
-      </c>
-      <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C473" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D473" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E473" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F473" t="n">
-        <v>4</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-888016.478637651</v>
-      </c>
-      <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C474" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D474" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E474" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F474" t="n">
-        <v>351.1544</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-888016.478637651</v>
-      </c>
-      <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>182.9</v>
-      </c>
-      <c r="C475" t="n">
-        <v>182.9</v>
-      </c>
-      <c r="D475" t="n">
-        <v>182.9</v>
-      </c>
-      <c r="E475" t="n">
-        <v>182.9</v>
-      </c>
-      <c r="F475" t="n">
-        <v>4027.995</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-892044.473637651</v>
-      </c>
-      <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C476" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D476" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E476" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F476" t="n">
-        <v>251</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-891793.473637651</v>
-      </c>
-      <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>182.9</v>
-      </c>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="C477" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="D477" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E477" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="F477" t="n">
-        <v>363.1089</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-891430.364737651</v>
-      </c>
-      <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="C478" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="D478" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="E478" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="F478" t="n">
-        <v>3813.8507</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-895244.2154376509</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C479" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D479" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E479" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F479" t="n">
-        <v>2.7263</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-895246.9417376509</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>183</v>
-      </c>
-      <c r="C480" t="n">
-        <v>182</v>
-      </c>
-      <c r="D480" t="n">
-        <v>183</v>
-      </c>
-      <c r="E480" t="n">
-        <v>182</v>
-      </c>
-      <c r="F480" t="n">
-        <v>43557.8162</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-938804.7579376509</v>
-      </c>
-      <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="C481" t="n">
-        <v>182</v>
-      </c>
-      <c r="D481" t="n">
-        <v>182</v>
-      </c>
-      <c r="E481" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="F481" t="n">
-        <v>14981.7278</v>
-      </c>
-      <c r="G481" t="n">
-        <v>-938804.7579376509</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>182</v>
-      </c>
-      <c r="C482" t="n">
-        <v>182</v>
-      </c>
-      <c r="D482" t="n">
-        <v>182</v>
-      </c>
-      <c r="E482" t="n">
-        <v>182</v>
-      </c>
-      <c r="F482" t="n">
-        <v>29699.1249</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-938804.7579376509</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C483" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D483" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E483" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F483" t="n">
-        <v>16.1949</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-938788.5630376509</v>
-      </c>
-      <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C484" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D484" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E484" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F484" t="n">
-        <v>250</v>
-      </c>
-      <c r="G484" t="n">
-        <v>-938788.5630376509</v>
-      </c>
-      <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C485" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D485" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E485" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F485" t="n">
-        <v>2072</v>
-      </c>
-      <c r="G485" t="n">
-        <v>-938788.5630376509</v>
-      </c>
-      <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="C486" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="D486" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E486" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="F486" t="n">
-        <v>5800.8092</v>
-      </c>
-      <c r="G486" t="n">
-        <v>-944589.3722376509</v>
-      </c>
-      <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="C487" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="D487" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="E487" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="F487" t="n">
-        <v>4509.6768</v>
-      </c>
-      <c r="G487" t="n">
-        <v>-940079.6954376509</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="C488" t="n">
-        <v>182</v>
-      </c>
-      <c r="D488" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="E488" t="n">
-        <v>182</v>
-      </c>
-      <c r="F488" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G488" t="n">
-        <v>-950079.6954376509</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16684,9 +16528,11 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>182</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16721,9 +16567,11 @@
         <v>-950079.6954376509</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>182</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16758,9 +16606,11 @@
         <v>-943521.0129376509</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>182</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16795,9 +16645,11 @@
         <v>-942881.2135376509</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>184.3</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16832,9 +16684,11 @@
         <v>-943155.2135376509</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>184.9</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16869,9 +16723,11 @@
         <v>-945161.7993376509</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>184</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -16906,9 +16762,11 @@
         <v>-944888.5910376508</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>182.9</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17177,9 +17035,11 @@
         <v>-944858.5910376508</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>183.9</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17214,9 +17074,11 @@
         <v>-944842.1252376508</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>183.9</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17251,9 +17113,11 @@
         <v>-945485.6613376508</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>184</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17288,9 +17152,11 @@
         <v>-944985.6613376508</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>183.2</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17325,9 +17191,11 @@
         <v>-944988.3913376508</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>185</v>
+      </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17362,9 +17230,11 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>183.4</v>
+      </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -17399,9 +17269,11 @@
         <v>-944985.6679376508</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -17436,9 +17308,11 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -17473,9 +17347,11 @@
         <v>-944326.6040376509</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -17510,9 +17386,11 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -17547,9 +17425,11 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -17584,9 +17464,11 @@
         <v>-948326.6039376509</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -17621,9 +17503,11 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>183.5</v>
+      </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -17658,9 +17542,11 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17695,9 +17581,11 @@
         <v>-947033.055937651</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17732,9 +17620,11 @@
         <v>-945028.0259376509</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>183.6</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17769,9 +17659,11 @@
         <v>-934538.347537651</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>184.9</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17806,9 +17698,11 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>185.3</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17843,9 +17737,11 @@
         <v>-944024.9817376509</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -17880,9 +17776,11 @@
         <v>-944173.082937651</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -17917,9 +17815,11 @@
         <v>-940669.797637651</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>184.3</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18065,16 +17965,18 @@
         <v>-941317.4393547548</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
       <c r="M526" t="inlineStr"/>
     </row>
     <row r="527">
@@ -18100,11 +18002,15 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18133,11 +18039,15 @@
         <v>-941077.2773547547</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18166,11 +18076,15 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18199,11 +18113,15 @@
         <v>-941074.6273547547</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18236,7 +18154,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18269,7 +18191,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18302,7 +18228,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18335,7 +18265,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18368,7 +18302,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18401,7 +18339,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18430,11 +18372,17 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18463,11 +18411,17 @@
         <v>-958901.2204547547</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18496,11 +18450,17 @@
         <v>-958026.2204547547</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>185.2</v>
+      </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
